--- a/www/IndicatorsPerCountry/Israel_CopperProduction_TerritorialRef_1979_2012_CCode_376.xlsx
+++ b/www/IndicatorsPerCountry/Israel_CopperProduction_TerritorialRef_1979_2012_CCode_376.xlsx
@@ -93,13 +93,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Israel_CopperProduction_TerritorialRef_1979_2012_CCode_376.xlsx
+++ b/www/IndicatorsPerCountry/Israel_CopperProduction_TerritorialRef_1979_2012_CCode_376.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="38">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,31 +39,58 @@
     <t>0</t>
   </si>
   <si>
-    <t>1.7</t>
+    <t>5.8</t>
   </si>
   <si>
-    <t>30.5</t>
+    <t>6.1</t>
   </si>
   <si>
-    <t>60.808</t>
+    <t>5.4</t>
   </si>
   <si>
-    <t>62.541</t>
+    <t>7.8</t>
   </si>
   <si>
-    <t>89.04</t>
+    <t>9.9</t>
   </si>
   <si>
-    <t>121.58</t>
+    <t>8.3</t>
   </si>
   <si>
-    <t>132.047</t>
+    <t>10.3</t>
   </si>
   <si>
-    <t>139</t>
+    <t>9.5</t>
   </si>
   <si>
-    <t>149.58</t>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -4125,7 +4152,7 @@
         <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -4142,7 +4169,7 @@
         <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
@@ -4159,7 +4186,7 @@
         <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -4176,7 +4203,7 @@
         <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
@@ -4193,7 +4220,7 @@
         <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -4210,7 +4237,7 @@
         <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240">
@@ -4227,7 +4254,7 @@
         <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -4244,7 +4271,7 @@
         <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
@@ -4261,7 +4288,7 @@
         <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -4278,7 +4305,7 @@
         <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -4295,7 +4322,7 @@
         <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245">
@@ -4312,7 +4339,7 @@
         <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246">
@@ -4329,7 +4356,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247">
@@ -4346,7 +4373,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248">
@@ -4363,7 +4390,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -4380,7 +4407,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250">
@@ -4397,7 +4424,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
@@ -4465,7 +4492,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255">
@@ -4482,7 +4509,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256">
@@ -4499,7 +4526,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257">
@@ -4873,7 +4900,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -4890,7 +4917,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -4907,7 +4934,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -4924,7 +4951,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -4941,7 +4968,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -4958,7 +4985,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -4975,7 +5002,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -4992,7 +5019,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -5009,7 +5036,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5027,50 +5054,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
